--- a/trunk/수정리스트_20160727.xlsx
+++ b/trunk/수정리스트_20160727.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="266">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1112,6 +1112,13 @@
   </si>
   <si>
     <t>0_0_slider_pop.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery(".topbtn").on("click", function(){
+ jQuery('.popWrap section.md4').animate({scrollTop: 0}, 200);
+});
+자바에서 호출하여 컨트롤 해야지만 WebView에서 작동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1432,7 +1439,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1742,7 +1749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B82" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A91" sqref="A91:I91"/>
     </sheetView>
   </sheetViews>
@@ -3754,7 +3761,7 @@
       <c r="H89" s="16"/>
       <c r="I89" s="23"/>
     </row>
-    <row r="90" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1">
+    <row r="90" spans="1:9" s="19" customFormat="1" ht="60.75" customHeight="1">
       <c r="A90" s="16" t="s">
         <v>253</v>
       </c>
@@ -3775,7 +3782,9 @@
         <v>103</v>
       </c>
       <c r="H90" s="16"/>
-      <c r="I90" s="23"/>
+      <c r="I90" s="17" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="91" spans="1:9" ht="40.5" customHeight="1">
       <c r="A91" s="39" t="s">

--- a/trunk/수정리스트_20160727.xlsx
+++ b/trunk/수정리스트_20160727.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="267">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1119,6 +1119,10 @@
  jQuery('.popWrap section.md4').animate({scrollTop: 0}, 200);
 });
 자바에서 호출하여 컨트롤 해야지만 WebView에서 작동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 수정 페이지 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1439,7 +1443,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1747,10 +1751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:I91"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E93" sqref="A92:I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3786,83 +3790,81 @@
         <v>265</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A91" s="39" t="s">
+    <row r="91" spans="1:9" s="19" customFormat="1" ht="60.75" customHeight="1">
+      <c r="A91" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B91" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C91" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="E91" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H91" s="16"/>
+      <c r="I91" s="17"/>
+    </row>
+    <row r="92" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A92" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="B91" s="39"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="39"/>
-      <c r="F91" s="39"/>
-      <c r="G91" s="39"/>
-      <c r="H91" s="39"/>
-      <c r="I91" s="39"/>
-    </row>
-    <row r="92" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A92" s="5" t="s">
+      <c r="B92" s="39"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="39"/>
+    </row>
+    <row r="93" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A93" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B93" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C93" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D93" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="E93" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="F93" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G92" s="5" t="s">
+      <c r="G93" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H92" s="5" t="s">
+      <c r="H93" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I92" s="5" t="s">
+      <c r="I93" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
-      <c r="A93" s="16" t="s">
+    <row r="94" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+      <c r="A94" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B93" s="23" t="s">
+      <c r="B94" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C93" s="23"/>
-      <c r="D93" s="17" t="s">
+      <c r="C94" s="23"/>
+      <c r="D94" s="17" t="s">
         <v>121</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="F93" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="G93" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="H93" s="16"/>
-      <c r="I93" s="23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" s="19" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A94" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="B94" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C94" s="33"/>
-      <c r="D94" s="17" t="s">
-        <v>200</v>
       </c>
       <c r="E94" s="16" t="s">
         <v>251</v>
@@ -3874,9 +3876,11 @@
         <v>99</v>
       </c>
       <c r="H94" s="16"/>
-      <c r="I94" s="23"/>
-    </row>
-    <row r="95" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
+      <c r="I94" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="19" customFormat="1" ht="40.5" customHeight="1">
       <c r="A95" s="16" t="s">
         <v>160</v>
       </c>
@@ -3885,7 +3889,7 @@
       </c>
       <c r="C95" s="33"/>
       <c r="D95" s="17" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="E95" s="16" t="s">
         <v>251</v>
@@ -3901,19 +3905,21 @@
     </row>
     <row r="96" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
       <c r="A96" s="16" t="s">
-        <v>241</v>
+        <v>160</v>
       </c>
       <c r="B96" s="23" t="s">
         <v>94</v>
       </c>
       <c r="C96" s="33"/>
       <c r="D96" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="E96" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="F96" s="16"/>
+        <v>240</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F96" s="28" t="s">
+        <v>244</v>
+      </c>
       <c r="G96" s="16" t="s">
         <v>99</v>
       </c>
@@ -3925,11 +3931,11 @@
         <v>241</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="C97" s="33"/>
       <c r="D97" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E97" s="31" t="s">
         <v>25</v>
@@ -3943,16 +3949,14 @@
     </row>
     <row r="98" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
       <c r="A98" s="16" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="C98" s="33" t="s">
-        <v>249</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C98" s="33"/>
       <c r="D98" s="17" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E98" s="31" t="s">
         <v>25</v>
@@ -3964,10 +3968,33 @@
       <c r="H98" s="16"/>
       <c r="I98" s="23"/>
     </row>
+    <row r="99" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A99" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="B99" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="C99" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="E99" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H99" s="16"/>
+      <c r="I99" s="23"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A91:I91"/>
+    <mergeCell ref="A92:I92"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/수정리스트_20160727.xlsx
+++ b/trunk/수정리스트_20160727.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="135" windowWidth="24240" windowHeight="12495"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="282">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1125,12 +1125,72 @@
     <t>댓글 수정 페이지 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2016.07.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재해보고작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg_step4.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.07.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 이미지 사이즈 동일하게 보이도록 수정되었으나, 안전교육 안전모이미지대신 느낌표이미지로 교체 요망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니티 상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니티 댓글수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 미리보기 영역 우측 하단 표시 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 수정화면 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">채팅방 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼블리싱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_1_chatting_room.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글이 긴 경우 오른쪽으로 넘어감. 개행되도록 수정 요망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1443,7 +1503,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1541,6 +1601,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1575,6 +1636,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1750,14 +1812,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E93" sqref="A92:I93"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.875" style="15" customWidth="1"/>
     <col min="2" max="2" width="19.875" style="2" customWidth="1"/>
@@ -1770,7 +1832,7 @@
     <col min="9" max="9" width="60.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" customHeight="1">
+    <row r="1" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>239</v>
       </c>
@@ -1783,7 +1845,7 @@
       <c r="H1" s="38"/>
       <c r="I1" s="38"/>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1812,7 +1874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1">
+    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -1831,7 +1893,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" ht="36">
+    <row r="4" spans="1:9" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
@@ -1848,7 +1910,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" s="12" customFormat="1" ht="32.25" customHeight="1">
+    <row r="5" spans="1:9" s="12" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
@@ -1871,7 +1933,7 @@
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" s="12" customFormat="1">
+    <row r="6" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
@@ -1896,7 +1958,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="12" customFormat="1">
+    <row r="7" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
@@ -1919,7 +1981,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" s="12" customFormat="1">
+    <row r="8" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
@@ -1942,7 +2004,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" s="12" customFormat="1">
+    <row r="9" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
@@ -1967,7 +2029,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="19" customFormat="1" ht="16.5" customHeight="1">
+    <row r="10" spans="1:9" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>12</v>
       </c>
@@ -1992,7 +2054,7 @@
       </c>
       <c r="I10" s="16"/>
     </row>
-    <row r="11" spans="1:9" s="19" customFormat="1">
+    <row r="11" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>12</v>
       </c>
@@ -2017,7 +2079,7 @@
       </c>
       <c r="I11" s="16"/>
     </row>
-    <row r="12" spans="1:9" s="12" customFormat="1">
+    <row r="12" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
@@ -2040,7 +2102,7 @@
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" s="12" customFormat="1">
+    <row r="13" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
@@ -2063,7 +2125,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="27" customFormat="1" ht="6.75" customHeight="1">
+    <row r="14" spans="1:9" s="27" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -2074,7 +2136,7 @@
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
     </row>
-    <row r="15" spans="1:9" s="12" customFormat="1">
+    <row r="15" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>13</v>
       </c>
@@ -2095,7 +2157,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="19" customFormat="1" ht="24">
+    <row r="16" spans="1:9" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>13</v>
       </c>
@@ -2122,7 +2184,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="12" customFormat="1">
+    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>13</v>
       </c>
@@ -2141,7 +2203,7 @@
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" s="27" customFormat="1" ht="6.75" customHeight="1">
+    <row r="18" spans="1:9" s="27" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -2152,7 +2214,7 @@
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
     </row>
-    <row r="19" spans="1:9" s="22" customFormat="1" ht="24" customHeight="1">
+    <row r="19" spans="1:9" s="22" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>32</v>
       </c>
@@ -2179,7 +2241,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="19" customFormat="1" ht="26.25" customHeight="1">
+    <row r="20" spans="1:9" s="19" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>47</v>
       </c>
@@ -2206,7 +2268,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
+    <row r="21" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>48</v>
       </c>
@@ -2233,7 +2295,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
+    <row r="22" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>61</v>
       </c>
@@ -2258,7 +2320,7 @@
       </c>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
+    <row r="23" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>70</v>
       </c>
@@ -2281,7 +2343,7 @@
       </c>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
+    <row r="24" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>61</v>
       </c>
@@ -2306,7 +2368,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="25" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>80</v>
       </c>
@@ -2331,7 +2393,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="26" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>86</v>
       </c>
@@ -2358,7 +2420,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="27" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>86</v>
       </c>
@@ -2385,7 +2447,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="28" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>86</v>
       </c>
@@ -2410,7 +2472,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="29" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>96</v>
       </c>
@@ -2433,7 +2495,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="30" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>96</v>
       </c>
@@ -2456,7 +2518,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="31" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>96</v>
       </c>
@@ -2481,7 +2543,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="32" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>96</v>
       </c>
@@ -2502,7 +2564,7 @@
       <c r="H32" s="16"/>
       <c r="I32" s="23"/>
     </row>
-    <row r="33" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="33" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>96</v>
       </c>
@@ -2525,7 +2587,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="34" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>96</v>
       </c>
@@ -2546,7 +2608,7 @@
       <c r="H34" s="16"/>
       <c r="I34" s="23"/>
     </row>
-    <row r="35" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="35" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>96</v>
       </c>
@@ -2567,7 +2629,7 @@
       <c r="H35" s="16"/>
       <c r="I35" s="23"/>
     </row>
-    <row r="36" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="36" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>96</v>
       </c>
@@ -2588,7 +2650,7 @@
       <c r="H36" s="16"/>
       <c r="I36" s="23"/>
     </row>
-    <row r="37" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="37" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>96</v>
       </c>
@@ -2609,7 +2671,7 @@
       <c r="H37" s="16"/>
       <c r="I37" s="23"/>
     </row>
-    <row r="38" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="38" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
         <v>96</v>
       </c>
@@ -2630,7 +2692,7 @@
       <c r="H38" s="16"/>
       <c r="I38" s="23"/>
     </row>
-    <row r="39" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="39" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>96</v>
       </c>
@@ -2651,7 +2713,7 @@
       <c r="H39" s="16"/>
       <c r="I39" s="23"/>
     </row>
-    <row r="40" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="40" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>96</v>
       </c>
@@ -2672,7 +2734,7 @@
       <c r="H40" s="16"/>
       <c r="I40" s="23"/>
     </row>
-    <row r="41" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="41" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
         <v>96</v>
       </c>
@@ -2693,7 +2755,7 @@
       <c r="H41" s="16"/>
       <c r="I41" s="23"/>
     </row>
-    <row r="42" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="42" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
         <v>123</v>
       </c>
@@ -2714,7 +2776,7 @@
       <c r="H42" s="16"/>
       <c r="I42" s="23"/>
     </row>
-    <row r="43" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="43" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>123</v>
       </c>
@@ -2735,7 +2797,7 @@
       <c r="H43" s="16"/>
       <c r="I43" s="23"/>
     </row>
-    <row r="44" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="44" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
         <v>123</v>
       </c>
@@ -2758,7 +2820,7 @@
       <c r="H44" s="16"/>
       <c r="I44" s="23"/>
     </row>
-    <row r="45" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="45" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
         <v>123</v>
       </c>
@@ -2779,7 +2841,7 @@
       <c r="H45" s="16"/>
       <c r="I45" s="23"/>
     </row>
-    <row r="46" spans="1:9" s="27" customFormat="1" ht="9" customHeight="1">
+    <row r="46" spans="1:9" s="27" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="25"/>
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
@@ -2790,7 +2852,7 @@
       <c r="H46" s="25"/>
       <c r="I46" s="35"/>
     </row>
-    <row r="47" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="47" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
         <v>203</v>
       </c>
@@ -2811,7 +2873,7 @@
       <c r="H47" s="16"/>
       <c r="I47" s="23"/>
     </row>
-    <row r="48" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="48" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
         <v>203</v>
       </c>
@@ -2832,7 +2894,7 @@
       <c r="H48" s="16"/>
       <c r="I48" s="23"/>
     </row>
-    <row r="49" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="49" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
         <v>203</v>
       </c>
@@ -2853,7 +2915,7 @@
       <c r="H49" s="16"/>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="50" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
         <v>203</v>
       </c>
@@ -2876,7 +2938,7 @@
       <c r="H50" s="16"/>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="51" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
         <v>203</v>
       </c>
@@ -2899,7 +2961,7 @@
       <c r="H51" s="16"/>
       <c r="I51" s="23"/>
     </row>
-    <row r="52" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="52" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">
         <v>203</v>
       </c>
@@ -2922,7 +2984,7 @@
       <c r="H52" s="16"/>
       <c r="I52" s="23"/>
     </row>
-    <row r="53" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="53" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
         <v>203</v>
       </c>
@@ -2945,7 +3007,7 @@
       <c r="H53" s="16"/>
       <c r="I53" s="23"/>
     </row>
-    <row r="54" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="54" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
         <v>203</v>
       </c>
@@ -2968,7 +3030,7 @@
       <c r="H54" s="16"/>
       <c r="I54" s="23"/>
     </row>
-    <row r="55" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="55" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="16" t="s">
         <v>203</v>
       </c>
@@ -2991,7 +3053,7 @@
       <c r="H55" s="16"/>
       <c r="I55" s="23"/>
     </row>
-    <row r="56" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="56" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="16" t="s">
         <v>203</v>
       </c>
@@ -3014,7 +3076,7 @@
       <c r="H56" s="16"/>
       <c r="I56" s="23"/>
     </row>
-    <row r="57" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="57" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="s">
         <v>203</v>
       </c>
@@ -3037,7 +3099,7 @@
       <c r="H57" s="16"/>
       <c r="I57" s="23"/>
     </row>
-    <row r="58" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="58" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="16" t="s">
         <v>203</v>
       </c>
@@ -3060,7 +3122,7 @@
       <c r="H58" s="16"/>
       <c r="I58" s="23"/>
     </row>
-    <row r="59" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="59" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="16" t="s">
         <v>203</v>
       </c>
@@ -3083,7 +3145,7 @@
       <c r="H59" s="16"/>
       <c r="I59" s="23"/>
     </row>
-    <row r="60" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="60" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="16" t="s">
         <v>203</v>
       </c>
@@ -3106,7 +3168,7 @@
       <c r="H60" s="16"/>
       <c r="I60" s="23"/>
     </row>
-    <row r="61" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="61" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="16" t="s">
         <v>203</v>
       </c>
@@ -3127,7 +3189,7 @@
       <c r="H61" s="16"/>
       <c r="I61" s="23"/>
     </row>
-    <row r="62" spans="1:9" s="27" customFormat="1" ht="9" customHeight="1">
+    <row r="62" spans="1:9" s="27" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
@@ -3138,7 +3200,7 @@
       <c r="H62" s="25"/>
       <c r="I62" s="25"/>
     </row>
-    <row r="63" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="63" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
         <v>160</v>
       </c>
@@ -3161,7 +3223,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="64" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="16" t="s">
         <v>160</v>
       </c>
@@ -3182,7 +3244,7 @@
       <c r="H64" s="16"/>
       <c r="I64" s="23"/>
     </row>
-    <row r="65" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="65" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="16" t="s">
         <v>160</v>
       </c>
@@ -3205,7 +3267,7 @@
       <c r="H65" s="16"/>
       <c r="I65" s="23"/>
     </row>
-    <row r="66" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="66" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="16" t="s">
         <v>160</v>
       </c>
@@ -3230,7 +3292,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="67" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="16" t="s">
         <v>160</v>
       </c>
@@ -3255,7 +3317,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="68" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="16" t="s">
         <v>160</v>
       </c>
@@ -3278,7 +3340,7 @@
       <c r="H68" s="16"/>
       <c r="I68" s="23"/>
     </row>
-    <row r="69" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="69" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="16" t="s">
         <v>160</v>
       </c>
@@ -3301,7 +3363,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="70" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="16" t="s">
         <v>160</v>
       </c>
@@ -3324,7 +3386,7 @@
       <c r="H70" s="16"/>
       <c r="I70" s="23"/>
     </row>
-    <row r="71" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="71" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="16" t="s">
         <v>160</v>
       </c>
@@ -3345,7 +3407,7 @@
       <c r="H71" s="16"/>
       <c r="I71" s="23"/>
     </row>
-    <row r="72" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="72" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="16" t="s">
         <v>160</v>
       </c>
@@ -3370,7 +3432,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="73" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="16" t="s">
         <v>160</v>
       </c>
@@ -3393,7 +3455,7 @@
       <c r="H73" s="16"/>
       <c r="I73" s="23"/>
     </row>
-    <row r="74" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="74" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="16" t="s">
         <v>160</v>
       </c>
@@ -3416,7 +3478,7 @@
       <c r="H74" s="16"/>
       <c r="I74" s="23"/>
     </row>
-    <row r="75" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="75" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="16" t="s">
         <v>160</v>
       </c>
@@ -3439,7 +3501,7 @@
       <c r="H75" s="16"/>
       <c r="I75" s="23"/>
     </row>
-    <row r="76" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="76" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="16" t="s">
         <v>160</v>
       </c>
@@ -3462,7 +3524,7 @@
       <c r="H76" s="16"/>
       <c r="I76" s="23"/>
     </row>
-    <row r="77" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="77" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="16" t="s">
         <v>160</v>
       </c>
@@ -3487,7 +3549,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="78" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="16" t="s">
         <v>160</v>
       </c>
@@ -3510,7 +3572,7 @@
       <c r="H78" s="16"/>
       <c r="I78" s="23"/>
     </row>
-    <row r="79" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1">
+    <row r="79" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="16" t="s">
         <v>160</v>
       </c>
@@ -3533,7 +3595,7 @@
       <c r="H79" s="16"/>
       <c r="I79" s="23"/>
     </row>
-    <row r="80" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1">
+    <row r="80" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="16" t="s">
         <v>160</v>
       </c>
@@ -3556,7 +3618,7 @@
       <c r="H80" s="16"/>
       <c r="I80" s="23"/>
     </row>
-    <row r="81" spans="1:9" s="19" customFormat="1" ht="111" customHeight="1">
+    <row r="81" spans="1:9" s="19" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="16" t="s">
         <v>160</v>
       </c>
@@ -3579,7 +3641,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1">
+    <row r="82" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="16" t="s">
         <v>160</v>
       </c>
@@ -3602,7 +3664,7 @@
       <c r="H82" s="16"/>
       <c r="I82" s="23"/>
     </row>
-    <row r="83" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1">
+    <row r="83" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="16" t="s">
         <v>203</v>
       </c>
@@ -3625,7 +3687,7 @@
       <c r="H83" s="16"/>
       <c r="I83" s="23"/>
     </row>
-    <row r="84" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+    <row r="84" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="16" t="s">
         <v>160</v>
       </c>
@@ -3648,7 +3710,7 @@
       <c r="H84" s="16"/>
       <c r="I84" s="23"/>
     </row>
-    <row r="85" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1">
+    <row r="85" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="16" t="s">
         <v>160</v>
       </c>
@@ -3673,7 +3735,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1">
+    <row r="86" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="16" t="s">
         <v>245</v>
       </c>
@@ -3696,7 +3758,7 @@
       <c r="H86" s="16"/>
       <c r="I86" s="23"/>
     </row>
-    <row r="87" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1">
+    <row r="87" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="16" t="s">
         <v>253</v>
       </c>
@@ -3719,7 +3781,7 @@
       <c r="H87" s="16"/>
       <c r="I87" s="23"/>
     </row>
-    <row r="88" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1">
+    <row r="88" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="16" t="s">
         <v>253</v>
       </c>
@@ -3742,7 +3804,7 @@
       <c r="H88" s="16"/>
       <c r="I88" s="23"/>
     </row>
-    <row r="89" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1">
+    <row r="89" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="16" t="s">
         <v>253</v>
       </c>
@@ -3765,7 +3827,7 @@
       <c r="H89" s="16"/>
       <c r="I89" s="23"/>
     </row>
-    <row r="90" spans="1:9" s="19" customFormat="1" ht="60.75" customHeight="1">
+    <row r="90" spans="1:9" s="19" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="16" t="s">
         <v>253</v>
       </c>
@@ -3790,7 +3852,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="19" customFormat="1" ht="60.75" customHeight="1">
+    <row r="91" spans="1:9" s="19" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="16" t="s">
         <v>253</v>
       </c>
@@ -3813,7 +3875,7 @@
       <c r="H91" s="16"/>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="40.5" customHeight="1">
+    <row r="92" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="39" t="s">
         <v>238</v>
       </c>
@@ -3826,7 +3888,7 @@
       <c r="H92" s="39"/>
       <c r="I92" s="39"/>
     </row>
-    <row r="93" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
+    <row r="93" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>0</v>
       </c>
@@ -3855,7 +3917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+    <row r="94" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="16" t="s">
         <v>96</v>
       </c>
@@ -3880,7 +3942,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="19" customFormat="1" ht="40.5" customHeight="1">
+    <row r="95" spans="1:9" s="19" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="16" t="s">
         <v>160</v>
       </c>
@@ -3903,7 +3965,7 @@
       <c r="H95" s="16"/>
       <c r="I95" s="23"/>
     </row>
-    <row r="96" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
+    <row r="96" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="16" t="s">
         <v>160</v>
       </c>
@@ -3926,7 +3988,7 @@
       <c r="H96" s="16"/>
       <c r="I96" s="23"/>
     </row>
-    <row r="97" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
+    <row r="97" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="16" t="s">
         <v>241</v>
       </c>
@@ -3947,7 +4009,7 @@
       <c r="H97" s="16"/>
       <c r="I97" s="23"/>
     </row>
-    <row r="98" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
+    <row r="98" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="16" t="s">
         <v>241</v>
       </c>
@@ -3968,9 +4030,9 @@
       <c r="H98" s="16"/>
       <c r="I98" s="23"/>
     </row>
-    <row r="99" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
+    <row r="99" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="16" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="B99" s="23" t="s">
         <v>246</v>
@@ -3990,6 +4052,115 @@
       </c>
       <c r="H99" s="16"/>
       <c r="I99" s="23"/>
+    </row>
+    <row r="100" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B100" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="C100" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="E100" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H100" s="16"/>
+      <c r="I100" s="23"/>
+    </row>
+    <row r="101" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="B101" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="C101" s="33"/>
+      <c r="D101" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H101" s="16"/>
+      <c r="I101" s="23"/>
+    </row>
+    <row r="102" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="B102" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="C102" s="33"/>
+      <c r="D102" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="E102" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="H102" s="16"/>
+      <c r="I102" s="23"/>
+    </row>
+    <row r="103" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="B103" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="C103" s="33"/>
+      <c r="D103" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="E103" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="H103" s="16"/>
+      <c r="I103" s="23"/>
+    </row>
+    <row r="104" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="B104" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="C104" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="H104" s="16"/>
+      <c r="I104" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4004,12 +4175,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4017,12 +4188,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/수정리스트_20160727.xlsx
+++ b/trunk/수정리스트_20160727.xlsx
@@ -1182,7 +1182,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>글이 긴 경우 오른쪽으로 넘어감. 개행되도록 수정 요망</t>
+    <t>글이 긴 경우 한글은 자동 개행이 되는데 숫자 영문은 오른쪽으로 넘어감.  수정 요망</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1816,7 +1816,7 @@
   <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
